--- a/Data/login_data.xlsx
+++ b/Data/login_data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="Datasets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -69,13 +70,25 @@
   </si>
   <si>
     <t>Seconduser</t>
+  </si>
+  <si>
+    <t>DataSet URL</t>
+  </si>
+  <si>
+    <t>DataSet ID Code</t>
+  </si>
+  <si>
+    <t>C:\VP Only 4DE7.mgr</t>
+  </si>
+  <si>
+    <t>4DE7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +104,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,9 +146,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -177,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,20 +460,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -488,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,19 +543,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -558,4 +600,40 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/login_data.xlsx
+++ b/Data/login_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -63,9 +63,6 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
     <t>Username1</t>
   </si>
   <si>
@@ -82,6 +79,15 @@
   </si>
   <si>
     <t>4DE7</t>
+  </si>
+  <si>
+    <t>FirstName1</t>
+  </si>
+  <si>
+    <t>LastName11</t>
+  </si>
+  <si>
+    <t>Username112</t>
   </si>
 </sst>
 </file>
@@ -214,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,7 +255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -530,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,13 +567,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -578,13 +584,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -618,18 +624,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Data/login_data.xlsx
+++ b/Data/login_data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
     <sheet name="Datasets" sheetId="3" r:id="rId3"/>
+    <sheet name="Roles" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Username</t>
   </si>
@@ -81,13 +82,28 @@
     <t>4DE7</t>
   </si>
   <si>
-    <t>FirstName1</t>
-  </si>
-  <si>
-    <t>LastName11</t>
-  </si>
-  <si>
-    <t>Username112</t>
+    <t>DataSet Name</t>
+  </si>
+  <si>
+    <t>VP Only 4DE7.mgr</t>
+  </si>
+  <si>
+    <t>Role Name</t>
+  </si>
+  <si>
+    <t>Username1hl2</t>
+  </si>
+  <si>
+    <t>LastName11bv</t>
+  </si>
+  <si>
+    <t>FirstName1xc</t>
+  </si>
+  <si>
+    <t>Testing123</t>
+  </si>
+  <si>
+    <t>Testing213</t>
   </si>
 </sst>
 </file>
@@ -152,13 +168,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -220,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,7 +272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,13 +584,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -610,36 +627,76 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/login_data.xlsx
+++ b/Data/login_data.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
     <sheet name="Datasets" sheetId="3" r:id="rId3"/>
     <sheet name="Roles" sheetId="4" r:id="rId4"/>
+    <sheet name="DG" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Username</t>
   </si>
@@ -104,6 +105,21 @@
   </si>
   <si>
     <t>Testing213</t>
+  </si>
+  <si>
+    <t>DG_Name</t>
+  </si>
+  <si>
+    <t>Group1</t>
+  </si>
+  <si>
+    <t>DG_Description</t>
+  </si>
+  <si>
+    <t>Group2</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
   </si>
 </sst>
 </file>
@@ -141,7 +157,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -176,6 +198,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -672,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -699,4 +722,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/login_data.xlsx
+++ b/Data/login_data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Username</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Group2</t>
   </si>
   <si>
-    <t>Duplicate</t>
+    <t>Index</t>
   </si>
 </sst>
 </file>
@@ -726,10 +726,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,36 +738,37 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
+      <c r="C3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/login_data.xlsx
+++ b/Data/login_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="Datasets" sheetId="3" r:id="rId3"/>
     <sheet name="Roles" sheetId="4" r:id="rId4"/>
     <sheet name="DG" sheetId="5" r:id="rId5"/>
+    <sheet name="Pumps" sheetId="6" r:id="rId6"/>
+    <sheet name="FailedPumps" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Username</t>
   </si>
@@ -77,18 +79,9 @@
     <t>DataSet ID Code</t>
   </si>
   <si>
-    <t>C:\VP Only 4DE7.mgr</t>
-  </si>
-  <si>
-    <t>4DE7</t>
-  </si>
-  <si>
     <t>DataSet Name</t>
   </si>
   <si>
-    <t>VP Only 4DE7.mgr</t>
-  </si>
-  <si>
     <t>Role Name</t>
   </si>
   <si>
@@ -120,6 +113,24 @@
   </si>
   <si>
     <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Pumps file URL</t>
+  </si>
+  <si>
+    <t>D:\Automation Python\ACE_Project\Data\pumps.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\rabdelfattah\Desktop\test dep groups\Guardrails dataset - IDB956.mgr</t>
+  </si>
+  <si>
+    <t>Guardrails dataset - IDB956.mgr</t>
+  </si>
+  <si>
+    <t>D:\Automation Python\ACE_Project\Data\InvalidPumpsFile.xlsx</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -510,14 +521,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -528,7 +539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -539,7 +550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -547,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -555,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -580,15 +591,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="1" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -605,15 +616,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -622,7 +633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -653,17 +664,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -671,18 +682,18 @@
         <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>8956</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -699,24 +710,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -728,46 +739,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Data/login_data.xlsx
+++ b/Data/login_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="Datasets" sheetId="3" r:id="rId3"/>
     <sheet name="Roles" sheetId="4" r:id="rId4"/>
     <sheet name="DG" sheetId="5" r:id="rId5"/>
+    <sheet name="Pumps" sheetId="6" r:id="rId6"/>
+    <sheet name="PumpsFailed" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Username</t>
   </si>
@@ -120,6 +122,15 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Pumps URL</t>
+  </si>
+  <si>
+    <t>D:\Automation Python\ACE_Project\Data\pumps.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Automation Python\ACE_Project\Data\InvalidPumpsFile.xlsx</t>
   </si>
 </sst>
 </file>
@@ -506,18 +517,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -528,7 +539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -539,7 +550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -547,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -555,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -580,15 +591,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="1" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -605,7 +616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -622,7 +633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -653,17 +664,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -674,7 +685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -699,22 +710,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -728,17 +739,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -749,7 +760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -760,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -769,6 +780,62 @@
       </c>
       <c r="C3">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Data/login_data.xlsx
+++ b/Data/login_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Username</t>
   </si>
@@ -64,15 +64,6 @@
     <t>user_name</t>
   </si>
   <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Username1</t>
-  </si>
-  <si>
-    <t>Seconduser</t>
-  </si>
-  <si>
     <t>DataSet URL</t>
   </si>
   <si>
@@ -94,15 +85,6 @@
     <t>Role Name</t>
   </si>
   <si>
-    <t>Username1hl2</t>
-  </si>
-  <si>
-    <t>LastName11bv</t>
-  </si>
-  <si>
-    <t>FirstName1xc</t>
-  </si>
-  <si>
     <t>Testing123</t>
   </si>
   <si>
@@ -131,6 +113,78 @@
   </si>
   <si>
     <t>D:\Automation Python\ACE_Project\Data\InvalidPumpsFile.xlsx</t>
+  </si>
+  <si>
+    <t>Biomed</t>
+  </si>
+  <si>
+    <t>Clinician</t>
+  </si>
+  <si>
+    <t>Pharmacist</t>
+  </si>
+  <si>
+    <t>FUL</t>
+  </si>
+  <si>
+    <t>SUL</t>
+  </si>
+  <si>
+    <t>TUL</t>
+  </si>
+  <si>
+    <t>FUF</t>
+  </si>
+  <si>
+    <t>SUF</t>
+  </si>
+  <si>
+    <t>TUF</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>DUF</t>
+  </si>
+  <si>
+    <t>DUL</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Alaa</t>
+  </si>
+  <si>
+    <t>Smsm</t>
+  </si>
+  <si>
+    <t>Randa</t>
   </si>
 </sst>
 </file>
@@ -517,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -585,21 +639,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -607,53 +661,138 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId5"/>
+    <hyperlink ref="G4" r:id="rId6"/>
+    <hyperlink ref="F5" r:id="rId7"/>
+    <hyperlink ref="G5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -676,24 +815,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -717,17 +856,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +879,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,21 +890,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -773,10 +912,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -802,12 +941,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -830,12 +969,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
